--- a/resources/Шаблон.xlsx
+++ b/resources/Шаблон.xlsx
@@ -910,7 +910,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1072,8 +1072,8 @@
   </sheetPr>
   <dimension ref="A1:IE112"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BC4" activeCellId="0" sqref="BC4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0.89453125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8660,7 +8660,7 @@
       <c r="ID35" s="10"/>
       <c r="IE35" s="10"/>
     </row>
-    <row r="36" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" s="7" customFormat="true" ht="35.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="60"/>
       <c r="B36" s="61"/>
       <c r="C36" s="61"/>
